--- a/src/main/java/com/crm/qa/testdata/FreeCrmData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayas/Desktop/Selenium_WorkSpace/FreeCRMTest/src/main/java/com/crm/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayas/Desktop/Selenium_WorkSpace/FreeCRMTestPOM/src/main/java/com/crm/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7E407-0B92-E440-B5F5-7258BDF771BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BDA26-2A4C-CC4E-903E-D03AB674B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{28B2BC0E-72EF-9444-BDAC-9ADE3E598DF8}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{28B2BC0E-72EF-9444-BDAC-9ADE3E598DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>title</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>Anushka</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>sdbkfbksd</t>
   </si>
 </sst>
 </file>
@@ -178,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D71C81F-29E5-4642-ABC1-7793076C665F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +600,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
